--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -15939,28 +15939,28 @@
     <t>data_in_public_message</t>
   </si>
   <si>
-    <t>By enabling this, the app’s internal database will be moved into the app’s public folder (Android/media/com.philkes.notallyx).
+    <t>By enabling this, the app’s internal database will be moved into the app’s public folder (Android/media/com.sleepyyui.notallyx).
 In combination with file synchronization apps this can be used to synchronize NotallyX data between multiple devices.</t>
   </si>
   <si>
-    <t>Pokud tuto možnost povolíte, interní databáze aplikace bude přesunuta do veřejné složky aplikace (Android/media/com.philkes.notallyx). V kombinaci s aplikacemi pro synchronizaci souborů to může být použito k synchronizaci dat NotallyX mezi více zařízeními.</t>
-  </si>
-  <si>
-    <t>Wird dies aktiviert, wird die app-interne Datenbank in einen öffentlichen Ordner ausgelagert (Android/media/com.philkes.notallyx). In Kombination mit Datei-Synchronisations Apps kann dies genutzt werden um NotallyX Daten zwischen mehrere Geräte zu synchronisieren.</t>
-  </si>
-  <si>
-    <t>Al habilitar esta opción, la base de datos interna de la aplicación se moverá al directorio público de la aplicación (Android/media/com.philkes.notallyx).
+    <t>Pokud tuto možnost povolíte, interní databáze aplikace bude přesunuta do veřejné složky aplikace (Android/media/com.sleepyyui.notallyx). V kombinaci s aplikacemi pro synchronizaci souborů to může být použito k synchronizaci dat NotallyX mezi více zařízeními.</t>
+  </si>
+  <si>
+    <t>Wird dies aktiviert, wird die app-interne Datenbank in einen öffentlichen Ordner ausgelagert (Android/media/com.sleepyyui.notallyx). In Kombination mit Datei-Synchronisations Apps kann dies genutzt werden um NotallyX Daten zwischen mehrere Geräte zu synchronisieren.</t>
+  </si>
+  <si>
+    <t>Al habilitar esta opción, la base de datos interna de la aplicación se moverá al directorio público de la aplicación (Android/media/com.sleepyyui.notallyx).
 En combinación con aplicaciones de sincronización de archivos, esta opción se puede utilizar para sincronizar datos de NotallyX entre varios dispositivos.</t>
   </si>
   <si>
-    <t>En activant cette option, la base de données interne de l'application sera déplacée dans le dossier public de l'application (Android/media/com.philkes.notallyx). En combinaison avec des applications de synchronisation de fichiers, cela peut être utilisé pour synchroniser les données de NotallyX entre plusieurs appareils.</t>
-  </si>
-  <si>
-    <t>Attivandolo, il database interno dell’app verrà spostato nella cartella pubblica dell’app (Android/media/com.philkes.notallyx).
+    <t>En activant cette option, la base de données interne de l'application sera déplacée dans le dossier public de l'application (Android/media/com.sleepyyui.notallyx). En combinaison avec des applications de synchronisation de fichiers, cela peut être utilisé pour synchroniser les données de NotallyX entre plusieurs appareils.</t>
+  </si>
+  <si>
+    <t>Attivandolo, il database interno dell’app verrà spostato nella cartella pubblica dell’app (Android/media/com.sleepyyui.notallyx).
 Abbinandolo con un’app di sincronizzazione file potrai così sincronizzare i dati di NotallyX tra dispositivi diversi.</t>
   </si>
   <si>
-    <t>Po włączeniu tej opcji wewnętrzna baza danych aplikacji zostanie przeniesiona do folderu publicznego aplikacji (Android/media/com.philkes.notallyx). W połączeniu z aplikacjami do synchronizacji plików można to wykorzystać do synchronizacji danych NotallyX między wieloma urządzeniami.</t>
+    <t>Po włączeniu tej opcji wewnętrzna baza danych aplikacji zostanie przeniesiona do folderu publicznego aplikacji (Android/media/com.sleepyyui.notallyx). W połączeniu z aplikacjami do synchronizacji plików można to wykorzystać do synchronizacji danych NotallyX między wieloma urządzeniami.</t>
   </si>
   <si>
     <t>启用此项，应用程序的内部数据库将被移动到应用程序的外部存储（Android / Media / Com.Philkes.notallyX）中。与文件同步应用组合，这可用于同步多个设备之间的数据。</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -12883,7 +12883,7 @@
     <t>false</t>
   </si>
   <si>
-    <t>NotallyX</t>
+    <t>NotallyXO</t>
   </si>
   <si>
     <t>appearance</t>
@@ -13401,7 +13401,7 @@
     <t>auto_backup_failed</t>
   </si>
   <si>
-    <t>NotallyX Auto Backup failed</t>
+    <t>NotallyXO Auto Backup failed</t>
   </si>
   <si>
     <t>Automatické zálohování NotallyX selhalo</t>
@@ -13491,7 +13491,7 @@
     <t>auto_backup_on_save_hint</t>
   </si>
   <si>
-    <t>By enabling this, a backup ("NotallyX_AutoBackup.zip") is automatically created in the configured "Backups Folder" whenever a note is exited.
+    <t>By enabling this, a backup ("NotallyXO_AutoBackup.zip") is automatically created in the configured "Backups Folder" whenever a note is exited.
 Be aware this might affect performance</t>
   </si>
   <si>
@@ -13588,7 +13588,7 @@
     <t>auto_backups_folder_rechoose</t>
   </si>
   <si>
-    <t>You need to re-choose your Backups Folder so that NotallyX has permission to write to it.
+    <t>You need to re-choose your Backups Folder so that NotallyXO has permission to write to it.
 You can also press cancel to skip importing Backups Folder value</t>
   </si>
   <si>
@@ -15939,8 +15939,8 @@
     <t>data_in_public_message</t>
   </si>
   <si>
-    <t>By enabling this, the app’s internal database will be moved into the app’s public folder (Android/media/com.sleepyyui.notallyx).
-In combination with file synchronization apps this can be used to synchronize NotallyX data between multiple devices.</t>
+    <t>By enabling this, the app’s internal database will be moved into the app’s public folder (Android/media/com.sleepyyui.notallyxo).
+In combination with file synchronization apps this can be used to synchronize NotallyXO data between multiple devices.</t>
   </si>
   <si>
     <t>Pokud tuto možnost povolíte, interní databáze aplikace bude přesunuta do veřejné složky aplikace (Android/media/com.sleepyyui.notallyx). V kombinaci s aplikacemi pro synchronizaci souborů to může být použito k synchronizaci dat NotallyX mezi více zařízeními.</t>
@@ -15963,10 +15963,10 @@
     <t>Po włączeniu tej opcji wewnętrzna baza danych aplikacji zostanie przeniesiona do folderu publicznego aplikacji (Android/media/com.sleepyyui.notallyx). W połączeniu z aplikacjami do synchronizacji plików można to wykorzystać do synchronizacji danych NotallyX między wieloma urządzeniami.</t>
   </si>
   <si>
-    <t>启用此项，应用程序的内部数据库将被移动到应用程序的外部存储（Android / Media / Com.Philkes.notallyX）中。与文件同步应用组合，这可用于同步多个设备之间的数据。</t>
-  </si>
-  <si>
-    <t>啟用此功能，應用程式的內部資料庫將被移至應用程式的外部儲存（Android / Media / Com.Philkes.notallyX）中。與檔案同步應用程式組合，這可用於同步多個裝置之間的資料。</t>
+    <t>启用此项，应用程序的内部数据库将被移动到应用程序的外部存储（Android / Media / Com.Sleepyyui.notallyX）中。与文件同步应用组合，这可用于同步多个设备之间的数据。</t>
+  </si>
+  <si>
+    <t>啟用此功能，應用程式的內部資料庫將被移至應用程式的外部儲存（Android / Media / Com.Sleepyyui.notallyX）中。與檔案同步應用程式組合，這可用於同步多個裝置之間的資料。</t>
   </si>
   <si>
     <t>date</t>
@@ -19330,7 +19330,7 @@
     <t>import_settings_message</t>
   </si>
   <si>
-    <t>In order to import settings, please choose a valid NotallyX settings JSON file</t>
+    <t>In order to import settings, please choose a valid NotallyXO settings JSON file</t>
   </si>
   <si>
     <t>Chcete-li importovat nastavení, vyberte prosím platný soubor JSON s nastavením NotallyX</t>
@@ -22352,7 +22352,7 @@
     <t>plain_text_files_help</t>
   </si>
   <si>
-    <t>In order to import your Notes from plain text files (single file or folder), click Import. Every file is imported as a separate note, the file’s name becomes the note’s title. If the text contents start with list syntax (e.g. Markdown ’- [x]’, NotallyX syntax ’[✓]’, or ’*’, ’-’) it will be converted to a List note.</t>
+    <t>In order to import your Notes from plain text files (single file or folder), click Import. Every file is imported as a separate note, the file’s name becomes the note’s title. If the text contents start with list syntax (e.g. Markdown ’- [x]’, NotallyXO syntax ’[✓]’, or ’*’, ’-’) it will be converted to a List note.</t>
   </si>
   <si>
     <t>Chcete-li importovat poznámky z textových souborů (jednotlivých souborů nebo složek), klikněte na tlačítko Importovat. Každý soubor se importuje jako samostatná poznámka, název souboru se stane názvem poznámky. Pokud textový obsah začíná syntaxí seznamu (např. syntaxí Markdown '- [x]', NotallyX '[✓]' nebo '*', '-'), bude převeden na poznámku Seznam.</t>
@@ -22407,7 +22407,7 @@
     <t>please_grant_notally_alarm</t>
   </si>
   <si>
-    <t>Please grant NotallyX to send reminders</t>
+    <t>Please grant NotallyXO to send reminders</t>
   </si>
   <si>
     <t>Povolte prosím aplikaci NotallyX zasílání upomínky</t>
@@ -22437,7 +22437,7 @@
     <t>please_grant_notally_audio</t>
   </si>
   <si>
-    <t>Please grant NotallyX the permission to record audio. Recordings never leave your device</t>
+    <t>Please grant NotallyXO the permission to record audio. Recordings never leave your device</t>
   </si>
   <si>
     <t>Povolte prosím NotallyX nahrávání zvuku. Nahrávky nikdy neopustí vaše zařízení</t>
@@ -22471,7 +22471,7 @@
     <t>please_grant_notally_notification</t>
   </si>
   <si>
-    <t>Please grant NotallyX the permission to send notifications</t>
+    <t>Please grant NotallyXO the permission to send notifications</t>
   </si>
   <si>
     <t>Povolte prosím  NotallyX zasílat oznámení</t>
@@ -22501,7 +22501,7 @@
     <t>please_grant_notally_notification_auto_backup</t>
   </si>
   <si>
-    <t>If an auto backup fails you can receive a notification, if you grant NotallyX permission to send notifications</t>
+    <t>If an auto backup fails you can receive a notification, if you grant NotallyXO permission to send notifications</t>
   </si>
   <si>
     <t>Pokud automatické zálohování selže, můžete obdržet oznámení, pokud NotallyX udělíte oprávnění k zasílání oznámení</t>
@@ -23615,7 +23615,7 @@
     <t>saved_to_notally</t>
   </si>
   <si>
-    <t>Saved to NotallyX</t>
+    <t>Saved to NotallyXO</t>
   </si>
   <si>
     <t>Desat a NotallyX</t>
@@ -25087,7 +25087,7 @@
     <t>to_record_audio</t>
   </si>
   <si>
-    <t>To record audio, allow NotallyX access to your microphone. Tap Settings &gt; Permissions and turn Microphone on</t>
+    <t>To record audio, allow NotallyXO access to your microphone. Tap Settings &gt; Permissions and turn Microphone on</t>
   </si>
   <si>
     <t>Chcete-li nahrávat zvuk, povolte  NotallyX přístup k mikrofonu. Klepněte na Nastavení &gt; Oprávnění a zapněte Mikrofon.</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$343</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$376</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -12335,7 +12335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10976" uniqueCount="4571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12032" uniqueCount="4636">
   <si>
     <t>Key</t>
   </si>
@@ -26148,6 +26148,201 @@
   </si>
   <si>
     <t>不會刪除與此標籤關聯的筆記</t>
+  </si>
+  <si>
+    <t>cloud_sync</t>
+  </si>
+  <si>
+    <t>Cloud Sync</t>
+  </si>
+  <si>
+    <t>sync_now</t>
+  </si>
+  <si>
+    <t>Sync Now</t>
+  </si>
+  <si>
+    <t>cloud_sync_enabled</t>
+  </si>
+  <si>
+    <t>Enable Cloud Sync</t>
+  </si>
+  <si>
+    <t>cloud_sync_enabled_message</t>
+  </si>
+  <si>
+    <t>Enable synchronization with a custom server</t>
+  </si>
+  <si>
+    <t>cloud_server_config</t>
+  </si>
+  <si>
+    <t>Server Configuration</t>
+  </si>
+  <si>
+    <t>cloud_server_config_message</t>
+  </si>
+  <si>
+    <t>Configure server connection settings</t>
+  </si>
+  <si>
+    <t>cloud_encryption_password</t>
+  </si>
+  <si>
+    <t>Encryption Password</t>
+  </si>
+  <si>
+    <t>cloud_encryption_password_message</t>
+  </si>
+  <si>
+    <t>Set password to encrypt data before sending to server</t>
+  </si>
+  <si>
+    <t>cloud_sync_options</t>
+  </si>
+  <si>
+    <t>Sync Options</t>
+  </si>
+  <si>
+    <t>cloud_sync_options_message</t>
+  </si>
+  <si>
+    <t>Configure auto-sync and connectivity preferences</t>
+  </si>
+  <si>
+    <t>cloud_sync_status</t>
+  </si>
+  <si>
+    <t>Last sync: %1$s</t>
+  </si>
+  <si>
+    <t>cloud_share_note</t>
+  </si>
+  <si>
+    <t>Share Note</t>
+  </si>
+  <si>
+    <t>cloud_share_note_message</t>
+  </si>
+  <si>
+    <t>Create a one-time share link for this note</t>
+  </si>
+  <si>
+    <t>cloud_shared_with_you</t>
+  </si>
+  <si>
+    <t>Shared with you</t>
+  </si>
+  <si>
+    <t>cloud_join_shared_note</t>
+  </si>
+  <si>
+    <t>Join Shared Note</t>
+  </si>
+  <si>
+    <t>cloud_server_url</t>
+  </si>
+  <si>
+    <t>Server URL</t>
+  </si>
+  <si>
+    <t>cloud_server_port</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>cloud_auth_token</t>
+  </si>
+  <si>
+    <t>Authentication Token</t>
+  </si>
+  <si>
+    <t>cloud_auto_sync</t>
+  </si>
+  <si>
+    <t>Auto Sync</t>
+  </si>
+  <si>
+    <t>cloud_wifi_only</t>
+  </si>
+  <si>
+    <t>Sync on Wi-Fi Only</t>
+  </si>
+  <si>
+    <t>cloud_share_access_level</t>
+  </si>
+  <si>
+    <t>Access Level</t>
+  </si>
+  <si>
+    <t>cloud_share_read_only</t>
+  </si>
+  <si>
+    <t>cloud_share_read_write</t>
+  </si>
+  <si>
+    <t>Read &amp; Write</t>
+  </si>
+  <si>
+    <t>cloud_share_token</t>
+  </si>
+  <si>
+    <t>Share Token</t>
+  </si>
+  <si>
+    <t>cloud_share_token_copied</t>
+  </si>
+  <si>
+    <t>Share token copied to clipboard</t>
+  </si>
+  <si>
+    <t>cloud_share_token_generate</t>
+  </si>
+  <si>
+    <t>Generate Token</t>
+  </si>
+  <si>
+    <t>cloud_share_token_expires</t>
+  </si>
+  <si>
+    <t>Expires in %1$s</t>
+  </si>
+  <si>
+    <t>cloud_share_token_no_expiry</t>
+  </si>
+  <si>
+    <t>No expiration</t>
+  </si>
+  <si>
+    <t>cloud_sync_in_progress</t>
+  </si>
+  <si>
+    <t>Sync in progress…</t>
+  </si>
+  <si>
+    <t>cloud_sync_completed</t>
+  </si>
+  <si>
+    <t>Sync completed</t>
+  </si>
+  <si>
+    <t>cloud_sync_failed</t>
+  </si>
+  <si>
+    <t>Sync failed: %1$s</t>
+  </si>
+  <si>
+    <t>cloud_not_configured</t>
+  </si>
+  <si>
+    <t>Server not configured</t>
+  </si>
+  <si>
+    <t>cloud_connection_error</t>
+  </si>
+  <si>
+    <t>Connection error</t>
   </si>
 </sst>
 </file>
@@ -30388,7 +30583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF343"/>
+  <dimension ref="A1:AF376"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -64015,8 +64210,3242 @@
         <v>4570</v>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" t="s" s="1">
+        <v>4571</v>
+      </c>
+      <c r="B344" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C344" t="s" s="1">
+        <v>4572</v>
+      </c>
+      <c r="D344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE344" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF344" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="1">
+        <v>4573</v>
+      </c>
+      <c r="B345" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C345" t="s" s="1">
+        <v>4574</v>
+      </c>
+      <c r="D345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE345" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF345" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="1">
+        <v>4575</v>
+      </c>
+      <c r="B346" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C346" t="s" s="1">
+        <v>4576</v>
+      </c>
+      <c r="D346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="1">
+        <v>4577</v>
+      </c>
+      <c r="B347" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C347" t="s" s="1">
+        <v>4578</v>
+      </c>
+      <c r="D347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF347" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="1">
+        <v>4579</v>
+      </c>
+      <c r="B348" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C348" t="s" s="1">
+        <v>4580</v>
+      </c>
+      <c r="D348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF348" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="1">
+        <v>4581</v>
+      </c>
+      <c r="B349" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C349" t="s" s="1">
+        <v>4582</v>
+      </c>
+      <c r="D349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF349" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="1">
+        <v>4583</v>
+      </c>
+      <c r="B350" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C350" t="s" s="1">
+        <v>4584</v>
+      </c>
+      <c r="D350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="1">
+        <v>4585</v>
+      </c>
+      <c r="B351" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C351" t="s" s="1">
+        <v>4586</v>
+      </c>
+      <c r="D351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF351" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="1">
+        <v>4587</v>
+      </c>
+      <c r="B352" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C352" t="s" s="1">
+        <v>4588</v>
+      </c>
+      <c r="D352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE352" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF352" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="1">
+        <v>4589</v>
+      </c>
+      <c r="B353" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C353" t="s" s="1">
+        <v>4590</v>
+      </c>
+      <c r="D353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE353" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF353" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="1">
+        <v>4591</v>
+      </c>
+      <c r="B354" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C354" t="s" s="1">
+        <v>4592</v>
+      </c>
+      <c r="D354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE354" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF354" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="1">
+        <v>4593</v>
+      </c>
+      <c r="B355" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C355" t="s" s="1">
+        <v>4594</v>
+      </c>
+      <c r="D355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF355" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="1">
+        <v>4595</v>
+      </c>
+      <c r="B356" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C356" t="s" s="1">
+        <v>4596</v>
+      </c>
+      <c r="D356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE356" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF356" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="1">
+        <v>4597</v>
+      </c>
+      <c r="B357" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C357" t="s" s="1">
+        <v>4598</v>
+      </c>
+      <c r="D357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE357" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF357" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="1">
+        <v>4599</v>
+      </c>
+      <c r="B358" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C358" t="s" s="1">
+        <v>4600</v>
+      </c>
+      <c r="D358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE358" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF358" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="1">
+        <v>4601</v>
+      </c>
+      <c r="B359" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C359" t="s" s="1">
+        <v>4602</v>
+      </c>
+      <c r="D359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE359" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF359" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="1">
+        <v>4603</v>
+      </c>
+      <c r="B360" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C360" t="s" s="1">
+        <v>4604</v>
+      </c>
+      <c r="D360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE360" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF360" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="1">
+        <v>4605</v>
+      </c>
+      <c r="B361" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C361" t="s" s="1">
+        <v>4606</v>
+      </c>
+      <c r="D361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE361" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF361" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="1">
+        <v>4607</v>
+      </c>
+      <c r="B362" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C362" t="s" s="1">
+        <v>4608</v>
+      </c>
+      <c r="D362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF362" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="1">
+        <v>4609</v>
+      </c>
+      <c r="B363" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C363" t="s" s="1">
+        <v>4610</v>
+      </c>
+      <c r="D363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF363" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="1">
+        <v>4611</v>
+      </c>
+      <c r="B364" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C364" t="s" s="1">
+        <v>4612</v>
+      </c>
+      <c r="D364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF364" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="1">
+        <v>4613</v>
+      </c>
+      <c r="B365" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C365" t="s" s="1">
+        <v>3412</v>
+      </c>
+      <c r="D365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF365" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="1">
+        <v>4614</v>
+      </c>
+      <c r="B366" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C366" t="s" s="1">
+        <v>4615</v>
+      </c>
+      <c r="D366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="1">
+        <v>4616</v>
+      </c>
+      <c r="B367" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C367" t="s" s="1">
+        <v>4617</v>
+      </c>
+      <c r="D367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF367" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="1">
+        <v>4618</v>
+      </c>
+      <c r="B368" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C368" t="s" s="1">
+        <v>4619</v>
+      </c>
+      <c r="D368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF368" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="1">
+        <v>4620</v>
+      </c>
+      <c r="B369" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C369" t="s" s="1">
+        <v>4621</v>
+      </c>
+      <c r="D369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF369" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="1">
+        <v>4622</v>
+      </c>
+      <c r="B370" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C370" t="s" s="1">
+        <v>4623</v>
+      </c>
+      <c r="D370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="1">
+        <v>4624</v>
+      </c>
+      <c r="B371" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C371" t="s" s="1">
+        <v>4625</v>
+      </c>
+      <c r="D371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="1">
+        <v>4626</v>
+      </c>
+      <c r="B372" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C372" t="s" s="1">
+        <v>4627</v>
+      </c>
+      <c r="D372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="1">
+        <v>4628</v>
+      </c>
+      <c r="B373" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C373" t="s" s="1">
+        <v>4629</v>
+      </c>
+      <c r="D373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="1">
+        <v>4630</v>
+      </c>
+      <c r="B374" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C374" t="s" s="1">
+        <v>4631</v>
+      </c>
+      <c r="D374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="1">
+        <v>4632</v>
+      </c>
+      <c r="B375" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C375" t="s" s="1">
+        <v>4633</v>
+      </c>
+      <c r="D375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="1">
+        <v>4634</v>
+      </c>
+      <c r="B376" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C376" t="s" s="1">
+        <v>4635</v>
+      </c>
+      <c r="D376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AG343"/>
+  <autoFilter ref="A1:AG376"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$376</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$408</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -12308,6 +12308,1542 @@
         </r>
       </text>
     </comment>
+    <comment ref="A379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF379" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'few'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF380" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'many'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF383" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'two'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF384" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>The default language does not need/have a translation for the quantity 'zero'.
+If this language needs a different translation for this quantity, add it, otherwise ignore this row.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C10" authorId="0">
       <text>
         <r>
@@ -12335,7 +13871,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12032" uniqueCount="4636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13056" uniqueCount="4689">
   <si>
     <t>Key</t>
   </si>
@@ -26343,6 +27879,165 @@
   </si>
   <si>
     <t>Connection error</t>
+  </si>
+  <si>
+    <t>untitled_note</t>
+  </si>
+  <si>
+    <t>Untitled note</t>
+  </si>
+  <si>
+    <t>encrypted_content</t>
+  </si>
+  <si>
+    <t>Encrypted content</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflicts_detected_PLURALS_few</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflicts_detected_PLURALS_many</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflicts_detected_PLURALS_one</t>
+  </si>
+  <si>
+    <t>%d sync conflict detected</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflicts_detected_PLURALS_other</t>
+  </si>
+  <si>
+    <t>%d sync conflicts detected</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflicts_detected_PLURALS_two</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflicts_detected_PLURALS_zero</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_resolution</t>
+  </si>
+  <si>
+    <t>Conflict Resolution</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_title</t>
+  </si>
+  <si>
+    <t>Conflict in "%1$s"</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_message</t>
+  </si>
+  <si>
+    <t>This note has been modified both locally and on the server. Please choose which version to keep or manually merge the changes.</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_local_version</t>
+  </si>
+  <si>
+    <t>Local Version</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_server_version</t>
+  </si>
+  <si>
+    <t>Server Version</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_last_modified</t>
+  </si>
+  <si>
+    <t>Last modified: %1$s</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_merge</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_keep_local</t>
+  </si>
+  <si>
+    <t>Keep Local</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_keep_server</t>
+  </si>
+  <si>
+    <t>Keep Server</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflict_show_differences</t>
+  </si>
+  <si>
+    <t>Show Differences</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflicts_notification_title</t>
+  </si>
+  <si>
+    <t>Sync conflicts detected</t>
+  </si>
+  <si>
+    <t>cloud_sync_conflicts_notification_text</t>
+  </si>
+  <si>
+    <t>%1$d notes have sync conflicts that need your attention</t>
+  </si>
+  <si>
+    <t>no_conflicts_detected</t>
+  </si>
+  <si>
+    <t>No sync conflicts detected</t>
+  </si>
+  <si>
+    <t>conflict_resolution</t>
+  </si>
+  <si>
+    <t>conflict_title</t>
+  </si>
+  <si>
+    <t>conflict_description</t>
+  </si>
+  <si>
+    <t>This note has been modified both locally and on the server.</t>
+  </si>
+  <si>
+    <t>resolve_conflict</t>
+  </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>conflict_local_version</t>
+  </si>
+  <si>
+    <t>conflict_server_version</t>
+  </si>
+  <si>
+    <t>conflict_keep_local</t>
+  </si>
+  <si>
+    <t>conflict_keep_server</t>
+  </si>
+  <si>
+    <t>conflict_merge</t>
+  </si>
+  <si>
+    <t>Merge Changes</t>
+  </si>
+  <si>
+    <t>conflict_last_modified</t>
+  </si>
+  <si>
+    <t>conflict_resolution_success</t>
+  </si>
+  <si>
+    <t>Conflict resolved successfully</t>
   </si>
 </sst>
 </file>
@@ -26350,7 +28045,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1033">
+  <fonts count="1161">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -26382,6 +28077,518 @@
       <name val="Courier New"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -30583,7 +32790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF376"/>
+  <dimension ref="A1:AF408"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -67444,8 +69651,3144 @@
         <v>63</v>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" t="s" s="1">
+        <v>4636</v>
+      </c>
+      <c r="B377" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C377" t="s" s="1">
+        <v>4637</v>
+      </c>
+      <c r="D377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="1">
+        <v>4638</v>
+      </c>
+      <c r="B378" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C378" t="s" s="1">
+        <v>4639</v>
+      </c>
+      <c r="D378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF378" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="1">
+        <v>4640</v>
+      </c>
+      <c r="B379" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE379" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF379" t="s" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="1">
+        <v>4641</v>
+      </c>
+      <c r="B380" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE380" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF380" t="s" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="1">
+        <v>4642</v>
+      </c>
+      <c r="B381" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C381" t="s" s="1">
+        <v>4643</v>
+      </c>
+      <c r="D381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE381" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF381" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="1">
+        <v>4644</v>
+      </c>
+      <c r="B382" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C382" t="s" s="1">
+        <v>4645</v>
+      </c>
+      <c r="D382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE382" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF382" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="1">
+        <v>4646</v>
+      </c>
+      <c r="B383" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE383" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF383" t="s" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="1">
+        <v>4647</v>
+      </c>
+      <c r="B384" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE384" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF384" t="s" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="1">
+        <v>4648</v>
+      </c>
+      <c r="B385" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C385" t="s" s="1">
+        <v>4649</v>
+      </c>
+      <c r="D385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE385" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF385" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="1">
+        <v>4650</v>
+      </c>
+      <c r="B386" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C386" t="s" s="1">
+        <v>4651</v>
+      </c>
+      <c r="D386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE386" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF386" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="1">
+        <v>4652</v>
+      </c>
+      <c r="B387" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C387" t="s" s="1">
+        <v>4653</v>
+      </c>
+      <c r="D387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE387" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF387" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="1">
+        <v>4654</v>
+      </c>
+      <c r="B388" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C388" t="s" s="1">
+        <v>4655</v>
+      </c>
+      <c r="D388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE388" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF388" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="1">
+        <v>4656</v>
+      </c>
+      <c r="B389" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C389" t="s" s="1">
+        <v>4657</v>
+      </c>
+      <c r="D389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE389" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF389" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="1">
+        <v>4658</v>
+      </c>
+      <c r="B390" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C390" t="s" s="1">
+        <v>4659</v>
+      </c>
+      <c r="D390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE390" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF390" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="1">
+        <v>4660</v>
+      </c>
+      <c r="B391" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C391" t="s" s="1">
+        <v>4661</v>
+      </c>
+      <c r="D391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE391" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF391" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="1">
+        <v>4662</v>
+      </c>
+      <c r="B392" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C392" t="s" s="1">
+        <v>4663</v>
+      </c>
+      <c r="D392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF392" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="1">
+        <v>4664</v>
+      </c>
+      <c r="B393" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C393" t="s" s="1">
+        <v>4665</v>
+      </c>
+      <c r="D393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF393" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="1">
+        <v>4666</v>
+      </c>
+      <c r="B394" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C394" t="s" s="1">
+        <v>4667</v>
+      </c>
+      <c r="D394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF394" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="1">
+        <v>4668</v>
+      </c>
+      <c r="B395" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C395" t="s" s="1">
+        <v>4669</v>
+      </c>
+      <c r="D395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="1">
+        <v>4670</v>
+      </c>
+      <c r="B396" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C396" t="s" s="1">
+        <v>4671</v>
+      </c>
+      <c r="D396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF396" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="1">
+        <v>4672</v>
+      </c>
+      <c r="B397" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C397" t="s" s="1">
+        <v>4673</v>
+      </c>
+      <c r="D397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE397" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF397" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="1">
+        <v>4674</v>
+      </c>
+      <c r="B398" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C398" t="s" s="1">
+        <v>4649</v>
+      </c>
+      <c r="D398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE398" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF398" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="1">
+        <v>4675</v>
+      </c>
+      <c r="B399" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C399" t="s" s="1">
+        <v>4651</v>
+      </c>
+      <c r="D399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE399" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF399" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="1">
+        <v>4676</v>
+      </c>
+      <c r="B400" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C400" t="s" s="1">
+        <v>4677</v>
+      </c>
+      <c r="D400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE400" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF400" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="1">
+        <v>4678</v>
+      </c>
+      <c r="B401" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C401" t="s" s="1">
+        <v>4679</v>
+      </c>
+      <c r="D401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE401" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF401" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="1">
+        <v>4680</v>
+      </c>
+      <c r="B402" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C402" t="s" s="1">
+        <v>4655</v>
+      </c>
+      <c r="D402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE402" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF402" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="1">
+        <v>4681</v>
+      </c>
+      <c r="B403" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C403" t="s" s="1">
+        <v>4657</v>
+      </c>
+      <c r="D403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE403" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF403" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="1">
+        <v>4682</v>
+      </c>
+      <c r="B404" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C404" t="s" s="1">
+        <v>4663</v>
+      </c>
+      <c r="D404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE404" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF404" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="1">
+        <v>4683</v>
+      </c>
+      <c r="B405" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C405" t="s" s="1">
+        <v>4665</v>
+      </c>
+      <c r="D405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE405" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF405" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="1">
+        <v>4684</v>
+      </c>
+      <c r="B406" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C406" t="s" s="1">
+        <v>4685</v>
+      </c>
+      <c r="D406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE406" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF406" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="1">
+        <v>4686</v>
+      </c>
+      <c r="B407" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C407" t="s" s="1">
+        <v>4659</v>
+      </c>
+      <c r="D407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE407" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF407" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="1">
+        <v>4687</v>
+      </c>
+      <c r="B408" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C408" t="s" s="1">
+        <v>4688</v>
+      </c>
+      <c r="D408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE408" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF408" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AG376"/>
+  <autoFilter ref="A1:AG408"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$414</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -12308,7 +12308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A379" authorId="0">
+    <comment ref="A385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12320,7 +12320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B379" authorId="0">
+    <comment ref="B385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12332,7 +12332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C379" authorId="0">
+    <comment ref="C385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12344,7 +12344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D379" authorId="0">
+    <comment ref="D385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12356,7 +12356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E379" authorId="0">
+    <comment ref="E385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12368,7 +12368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F379" authorId="0">
+    <comment ref="F385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12380,7 +12380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G379" authorId="0">
+    <comment ref="G385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12392,7 +12392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H379" authorId="0">
+    <comment ref="H385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12404,7 +12404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I379" authorId="0">
+    <comment ref="I385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12416,7 +12416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J379" authorId="0">
+    <comment ref="J385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12428,7 +12428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K379" authorId="0">
+    <comment ref="K385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12440,7 +12440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L379" authorId="0">
+    <comment ref="L385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12452,7 +12452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M379" authorId="0">
+    <comment ref="M385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12464,7 +12464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N379" authorId="0">
+    <comment ref="N385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12476,7 +12476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O379" authorId="0">
+    <comment ref="O385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12488,7 +12488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P379" authorId="0">
+    <comment ref="P385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12500,7 +12500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q379" authorId="0">
+    <comment ref="Q385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12512,7 +12512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R379" authorId="0">
+    <comment ref="R385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12524,7 +12524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S379" authorId="0">
+    <comment ref="S385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12536,7 +12536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T379" authorId="0">
+    <comment ref="T385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12548,7 +12548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U379" authorId="0">
+    <comment ref="U385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12560,7 +12560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V379" authorId="0">
+    <comment ref="V385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12572,7 +12572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W379" authorId="0">
+    <comment ref="W385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12584,7 +12584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X379" authorId="0">
+    <comment ref="X385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12596,7 +12596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y379" authorId="0">
+    <comment ref="Y385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12608,7 +12608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z379" authorId="0">
+    <comment ref="Z385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12620,7 +12620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA379" authorId="0">
+    <comment ref="AA385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12632,7 +12632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB379" authorId="0">
+    <comment ref="AB385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12644,7 +12644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC379" authorId="0">
+    <comment ref="AC385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12656,7 +12656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD379" authorId="0">
+    <comment ref="AD385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12668,7 +12668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE379" authorId="0">
+    <comment ref="AE385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12680,7 +12680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF379" authorId="0">
+    <comment ref="AF385" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12692,7 +12692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A380" authorId="0">
+    <comment ref="A386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12704,7 +12704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B380" authorId="0">
+    <comment ref="B386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12716,7 +12716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C380" authorId="0">
+    <comment ref="C386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12728,7 +12728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D380" authorId="0">
+    <comment ref="D386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12740,7 +12740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E380" authorId="0">
+    <comment ref="E386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12752,7 +12752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F380" authorId="0">
+    <comment ref="F386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12764,7 +12764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G380" authorId="0">
+    <comment ref="G386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12776,7 +12776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H380" authorId="0">
+    <comment ref="H386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12788,7 +12788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I380" authorId="0">
+    <comment ref="I386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12800,7 +12800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J380" authorId="0">
+    <comment ref="J386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12812,7 +12812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K380" authorId="0">
+    <comment ref="K386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12824,7 +12824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L380" authorId="0">
+    <comment ref="L386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12836,7 +12836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M380" authorId="0">
+    <comment ref="M386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12848,7 +12848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N380" authorId="0">
+    <comment ref="N386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12860,7 +12860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O380" authorId="0">
+    <comment ref="O386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12872,7 +12872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P380" authorId="0">
+    <comment ref="P386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12884,7 +12884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q380" authorId="0">
+    <comment ref="Q386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12896,7 +12896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R380" authorId="0">
+    <comment ref="R386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12908,7 +12908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S380" authorId="0">
+    <comment ref="S386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12920,7 +12920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T380" authorId="0">
+    <comment ref="T386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12932,7 +12932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U380" authorId="0">
+    <comment ref="U386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12944,7 +12944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V380" authorId="0">
+    <comment ref="V386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12956,7 +12956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W380" authorId="0">
+    <comment ref="W386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12968,7 +12968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X380" authorId="0">
+    <comment ref="X386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12980,7 +12980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y380" authorId="0">
+    <comment ref="Y386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12992,7 +12992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z380" authorId="0">
+    <comment ref="Z386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13004,7 +13004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA380" authorId="0">
+    <comment ref="AA386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13016,7 +13016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB380" authorId="0">
+    <comment ref="AB386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13028,7 +13028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC380" authorId="0">
+    <comment ref="AC386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13040,7 +13040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD380" authorId="0">
+    <comment ref="AD386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13052,7 +13052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE380" authorId="0">
+    <comment ref="AE386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13064,7 +13064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF380" authorId="0">
+    <comment ref="AF386" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13076,7 +13076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A383" authorId="0">
+    <comment ref="A389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13088,7 +13088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B383" authorId="0">
+    <comment ref="B389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13100,7 +13100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C383" authorId="0">
+    <comment ref="C389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13112,7 +13112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D383" authorId="0">
+    <comment ref="D389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13124,7 +13124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E383" authorId="0">
+    <comment ref="E389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13136,7 +13136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F383" authorId="0">
+    <comment ref="F389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13148,7 +13148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G383" authorId="0">
+    <comment ref="G389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13160,7 +13160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H383" authorId="0">
+    <comment ref="H389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13172,7 +13172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I383" authorId="0">
+    <comment ref="I389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13184,7 +13184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J383" authorId="0">
+    <comment ref="J389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13196,7 +13196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K383" authorId="0">
+    <comment ref="K389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13208,7 +13208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L383" authorId="0">
+    <comment ref="L389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13220,7 +13220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M383" authorId="0">
+    <comment ref="M389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13232,7 +13232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N383" authorId="0">
+    <comment ref="N389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13244,7 +13244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O383" authorId="0">
+    <comment ref="O389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13256,7 +13256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P383" authorId="0">
+    <comment ref="P389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13268,7 +13268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q383" authorId="0">
+    <comment ref="Q389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13280,7 +13280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R383" authorId="0">
+    <comment ref="R389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13292,7 +13292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S383" authorId="0">
+    <comment ref="S389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13304,7 +13304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T383" authorId="0">
+    <comment ref="T389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13316,7 +13316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U383" authorId="0">
+    <comment ref="U389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13328,7 +13328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V383" authorId="0">
+    <comment ref="V389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13340,7 +13340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W383" authorId="0">
+    <comment ref="W389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13352,7 +13352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X383" authorId="0">
+    <comment ref="X389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13364,7 +13364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y383" authorId="0">
+    <comment ref="Y389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13376,7 +13376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z383" authorId="0">
+    <comment ref="Z389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13388,7 +13388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA383" authorId="0">
+    <comment ref="AA389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13400,7 +13400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB383" authorId="0">
+    <comment ref="AB389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13412,7 +13412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC383" authorId="0">
+    <comment ref="AC389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13424,7 +13424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD383" authorId="0">
+    <comment ref="AD389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13436,7 +13436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE383" authorId="0">
+    <comment ref="AE389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13448,7 +13448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF383" authorId="0">
+    <comment ref="AF389" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13460,7 +13460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A384" authorId="0">
+    <comment ref="A390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13472,7 +13472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B384" authorId="0">
+    <comment ref="B390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13484,7 +13484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C384" authorId="0">
+    <comment ref="C390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13496,7 +13496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D384" authorId="0">
+    <comment ref="D390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13508,7 +13508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E384" authorId="0">
+    <comment ref="E390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13520,7 +13520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F384" authorId="0">
+    <comment ref="F390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13532,7 +13532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G384" authorId="0">
+    <comment ref="G390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13544,7 +13544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H384" authorId="0">
+    <comment ref="H390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13556,7 +13556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I384" authorId="0">
+    <comment ref="I390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13568,7 +13568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J384" authorId="0">
+    <comment ref="J390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13580,7 +13580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K384" authorId="0">
+    <comment ref="K390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13592,7 +13592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L384" authorId="0">
+    <comment ref="L390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13604,7 +13604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M384" authorId="0">
+    <comment ref="M390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13616,7 +13616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N384" authorId="0">
+    <comment ref="N390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13628,7 +13628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O384" authorId="0">
+    <comment ref="O390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13640,7 +13640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P384" authorId="0">
+    <comment ref="P390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13652,7 +13652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q384" authorId="0">
+    <comment ref="Q390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13664,7 +13664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R384" authorId="0">
+    <comment ref="R390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13676,7 +13676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S384" authorId="0">
+    <comment ref="S390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13688,7 +13688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T384" authorId="0">
+    <comment ref="T390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13700,7 +13700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U384" authorId="0">
+    <comment ref="U390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13712,7 +13712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V384" authorId="0">
+    <comment ref="V390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13724,7 +13724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W384" authorId="0">
+    <comment ref="W390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13736,7 +13736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X384" authorId="0">
+    <comment ref="X390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13748,7 +13748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y384" authorId="0">
+    <comment ref="Y390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13760,7 +13760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z384" authorId="0">
+    <comment ref="Z390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13772,7 +13772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA384" authorId="0">
+    <comment ref="AA390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13784,7 +13784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB384" authorId="0">
+    <comment ref="AB390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13796,7 +13796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC384" authorId="0">
+    <comment ref="AC390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13808,7 +13808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD384" authorId="0">
+    <comment ref="AD390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13820,7 +13820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE384" authorId="0">
+    <comment ref="AE390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13832,7 +13832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF384" authorId="0">
+    <comment ref="AF390" authorId="0">
       <text>
         <r>
           <rPr>
@@ -13871,7 +13871,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13056" uniqueCount="4689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13248" uniqueCount="4700">
   <si>
     <t>Key</t>
   </si>
@@ -27686,6 +27686,42 @@
     <t>不會刪除與此標籤關聯的筆記</t>
   </si>
   <si>
+    <t>sync_status_connected</t>
+  </si>
+  <si>
+    <t>Cloud connected</t>
+  </si>
+  <si>
+    <t>sync_status_disconnected</t>
+  </si>
+  <si>
+    <t>Cloud disconnected</t>
+  </si>
+  <si>
+    <t>sync_status_connecting</t>
+  </si>
+  <si>
+    <t>Connecting to cloud…</t>
+  </si>
+  <si>
+    <t>sync_status_error</t>
+  </si>
+  <si>
+    <t>Connection error</t>
+  </si>
+  <si>
+    <t>cloud_sync_status_indicator</t>
+  </si>
+  <si>
+    <t>Sync status indicator</t>
+  </si>
+  <si>
+    <t>sync_status_reconnecting</t>
+  </si>
+  <si>
+    <t>Attempting to reconnect…</t>
+  </si>
+  <si>
     <t>cloud_sync</t>
   </si>
   <si>
@@ -27876,9 +27912,6 @@
   </si>
   <si>
     <t>cloud_connection_error</t>
-  </si>
-  <si>
-    <t>Connection error</t>
   </si>
   <si>
     <t>untitled_note</t>
@@ -32790,7 +32823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF408"/>
+  <dimension ref="A1:AF414"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -68483,7 +68516,7 @@
         <v>33</v>
       </c>
       <c r="C365" t="s" s="1">
-        <v>3412</v>
+        <v>4614</v>
       </c>
       <c r="D365" t="s" s="2">
         <v>63</v>
@@ -68575,13 +68608,13 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="1">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="B366" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C366" t="s" s="1">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="D366" t="s" s="2">
         <v>63</v>
@@ -68673,13 +68706,13 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="1">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="B367" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C367" t="s" s="1">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="D367" t="s" s="2">
         <v>63</v>
@@ -68771,13 +68804,13 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="1">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="B368" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C368" t="s" s="1">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="D368" t="s" s="2">
         <v>63</v>
@@ -68869,13 +68902,13 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="1">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="B369" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C369" t="s" s="1">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>63</v>
@@ -68967,13 +69000,13 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="1">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="B370" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C370" t="s" s="1">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="D370" t="s" s="2">
         <v>63</v>
@@ -69065,13 +69098,13 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="1">
-        <v>4624</v>
+        <v>4625</v>
       </c>
       <c r="B371" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C371" t="s" s="1">
-        <v>4625</v>
+        <v>3412</v>
       </c>
       <c r="D371" t="s" s="2">
         <v>63</v>
@@ -69854,204 +69887,204 @@
       <c r="B379" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="F379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="H379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="J379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="K379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="L379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="M379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="N379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="O379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="P379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="R379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="S379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="T379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="X379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AA379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AB379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AC379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AD379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AE379" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF379" t="s" s="3">
+      <c r="C379" t="s" s="1">
+        <v>4641</v>
+      </c>
+      <c r="D379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF379" t="s" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="1">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="B380" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="F380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="H380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="J380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="K380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="L380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="M380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="N380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="O380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="P380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="R380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="S380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="T380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="X380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AA380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AB380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AC380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AD380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AE380" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF380" t="s" s="3">
+      <c r="C380" t="s" s="1">
+        <v>4643</v>
+      </c>
+      <c r="D380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF380" t="s" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="1">
-        <v>4642</v>
+        <v>4644</v>
       </c>
       <c r="B381" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C381" t="s" s="1">
-        <v>4643</v>
+        <v>4645</v>
       </c>
       <c r="D381" t="s" s="2">
         <v>63</v>
@@ -70143,13 +70176,13 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="1">
-        <v>4644</v>
+        <v>4646</v>
       </c>
       <c r="B382" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C382" t="s" s="1">
-        <v>4645</v>
+        <v>4578</v>
       </c>
       <c r="D382" t="s" s="2">
         <v>63</v>
@@ -70241,405 +70274,405 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="1">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="B383" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="F383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="H383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="J383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="K383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="L383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="M383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="N383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="O383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="P383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="R383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="S383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="T383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="X383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AA383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AB383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AC383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AD383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AE383" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF383" t="s" s="3">
+      <c r="C383" t="s" s="1">
+        <v>4648</v>
+      </c>
+      <c r="D383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE383" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF383" t="s" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="1">
-        <v>4647</v>
+        <v>4649</v>
       </c>
       <c r="B384" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="F384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="H384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="J384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="K384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="L384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="M384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="N384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="O384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="P384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="R384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="S384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="T384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="X384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AA384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AB384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AC384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AD384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AE384" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF384" t="s" s="3">
+      <c r="C384" t="s" s="1">
+        <v>4650</v>
+      </c>
+      <c r="D384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE384" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF384" t="s" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="1">
-        <v>4648</v>
+        <v>4651</v>
       </c>
       <c r="B385" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C385" t="s" s="1">
-        <v>4649</v>
-      </c>
-      <c r="D385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="F385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="H385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="J385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="T385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE385" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AF385" t="s" s="2">
+      <c r="C385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE385" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF385" t="s" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="1">
-        <v>4650</v>
+        <v>4652</v>
       </c>
       <c r="B386" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C386" t="s" s="1">
-        <v>4651</v>
-      </c>
-      <c r="D386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="F386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="H386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="J386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="T386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE386" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AF386" t="s" s="2">
+      <c r="C386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE386" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF386" t="s" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="1">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="B387" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C387" t="s" s="1">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="D387" t="s" s="2">
         <v>63</v>
@@ -70731,13 +70764,13 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="1">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="B388" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C388" t="s" s="1">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="D388" t="s" s="2">
         <v>63</v>
@@ -70829,99 +70862,99 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="1">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="B389" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C389" t="s" s="1">
-        <v>4657</v>
-      </c>
-      <c r="D389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="F389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="H389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="J389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="T389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE389" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AF389" t="s" s="2">
+      <c r="C389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE389" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF389" t="s" s="3">
         <v>63</v>
       </c>
     </row>
@@ -70932,106 +70965,106 @@
       <c r="B390" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C390" t="s" s="1">
-        <v>4659</v>
-      </c>
-      <c r="D390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="F390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="H390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="J390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="K390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="T390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE390" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AF390" t="s" s="2">
+      <c r="C390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE390" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF390" t="s" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="1">
-        <v>4660</v>
+        <v>4659</v>
       </c>
       <c r="B391" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C391" t="s" s="1">
-        <v>4661</v>
+        <v>4660</v>
       </c>
       <c r="D391" t="s" s="2">
         <v>63</v>
@@ -71123,13 +71156,13 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="1">
-        <v>4662</v>
+        <v>4661</v>
       </c>
       <c r="B392" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C392" t="s" s="1">
-        <v>4663</v>
+        <v>4662</v>
       </c>
       <c r="D392" t="s" s="2">
         <v>63</v>
@@ -71221,13 +71254,13 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="1">
-        <v>4664</v>
+        <v>4663</v>
       </c>
       <c r="B393" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C393" t="s" s="1">
-        <v>4665</v>
+        <v>4664</v>
       </c>
       <c r="D393" t="s" s="2">
         <v>63</v>
@@ -71319,13 +71352,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="1">
-        <v>4666</v>
+        <v>4665</v>
       </c>
       <c r="B394" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C394" t="s" s="1">
-        <v>4667</v>
+        <v>4666</v>
       </c>
       <c r="D394" t="s" s="2">
         <v>63</v>
@@ -71417,13 +71450,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="1">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="B395" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C395" t="s" s="1">
-        <v>4669</v>
+        <v>4668</v>
       </c>
       <c r="D395" t="s" s="2">
         <v>63</v>
@@ -71515,13 +71548,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="1">
-        <v>4670</v>
+        <v>4669</v>
       </c>
       <c r="B396" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C396" t="s" s="1">
-        <v>4671</v>
+        <v>4670</v>
       </c>
       <c r="D396" t="s" s="2">
         <v>63</v>
@@ -71613,13 +71646,13 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="1">
-        <v>4672</v>
+        <v>4671</v>
       </c>
       <c r="B397" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C397" t="s" s="1">
-        <v>4673</v>
+        <v>4672</v>
       </c>
       <c r="D397" t="s" s="2">
         <v>63</v>
@@ -71711,13 +71744,13 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="1">
-        <v>4674</v>
+        <v>4673</v>
       </c>
       <c r="B398" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C398" t="s" s="1">
-        <v>4649</v>
+        <v>4674</v>
       </c>
       <c r="D398" t="s" s="2">
         <v>63</v>
@@ -71815,7 +71848,7 @@
         <v>33</v>
       </c>
       <c r="C399" t="s" s="1">
-        <v>4651</v>
+        <v>4676</v>
       </c>
       <c r="D399" t="s" s="2">
         <v>63</v>
@@ -71907,13 +71940,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="1">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="B400" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C400" t="s" s="1">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="D400" t="s" s="2">
         <v>63</v>
@@ -72005,13 +72038,13 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="1">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="B401" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C401" t="s" s="1">
-        <v>4679</v>
+        <v>4680</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>63</v>
@@ -72103,13 +72136,13 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="1">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="B402" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C402" t="s" s="1">
-        <v>4655</v>
+        <v>4682</v>
       </c>
       <c r="D402" t="s" s="2">
         <v>63</v>
@@ -72201,13 +72234,13 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="1">
-        <v>4681</v>
+        <v>4683</v>
       </c>
       <c r="B403" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C403" t="s" s="1">
-        <v>4657</v>
+        <v>4684</v>
       </c>
       <c r="D403" t="s" s="2">
         <v>63</v>
@@ -72299,13 +72332,13 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="1">
-        <v>4682</v>
+        <v>4685</v>
       </c>
       <c r="B404" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C404" t="s" s="1">
-        <v>4663</v>
+        <v>4660</v>
       </c>
       <c r="D404" t="s" s="2">
         <v>63</v>
@@ -72397,13 +72430,13 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="1">
-        <v>4683</v>
+        <v>4686</v>
       </c>
       <c r="B405" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C405" t="s" s="1">
-        <v>4665</v>
+        <v>4662</v>
       </c>
       <c r="D405" t="s" s="2">
         <v>63</v>
@@ -72495,13 +72528,13 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="1">
-        <v>4684</v>
+        <v>4687</v>
       </c>
       <c r="B406" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C406" t="s" s="1">
-        <v>4685</v>
+        <v>4688</v>
       </c>
       <c r="D406" t="s" s="2">
         <v>63</v>
@@ -72593,13 +72626,13 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="1">
-        <v>4686</v>
+        <v>4689</v>
       </c>
       <c r="B407" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C407" t="s" s="1">
-        <v>4659</v>
+        <v>4690</v>
       </c>
       <c r="D407" t="s" s="2">
         <v>63</v>
@@ -72691,13 +72724,13 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="1">
-        <v>4687</v>
+        <v>4691</v>
       </c>
       <c r="B408" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C408" t="s" s="1">
-        <v>4688</v>
+        <v>4666</v>
       </c>
       <c r="D408" t="s" s="2">
         <v>63</v>
@@ -72784,11 +72817,599 @@
         <v>63</v>
       </c>
       <c r="AF408" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="1">
+        <v>4692</v>
+      </c>
+      <c r="B409" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C409" t="s" s="1">
+        <v>4668</v>
+      </c>
+      <c r="D409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE409" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF409" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="1">
+        <v>4693</v>
+      </c>
+      <c r="B410" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C410" t="s" s="1">
+        <v>4674</v>
+      </c>
+      <c r="D410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE410" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF410" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="1">
+        <v>4694</v>
+      </c>
+      <c r="B411" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C411" t="s" s="1">
+        <v>4676</v>
+      </c>
+      <c r="D411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF411" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="1">
+        <v>4695</v>
+      </c>
+      <c r="B412" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C412" t="s" s="1">
+        <v>4696</v>
+      </c>
+      <c r="D412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF412" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="1">
+        <v>4697</v>
+      </c>
+      <c r="B413" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C413" t="s" s="1">
+        <v>4670</v>
+      </c>
+      <c r="D413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE413" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF413" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="1">
+        <v>4698</v>
+      </c>
+      <c r="B414" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C414" t="s" s="1">
+        <v>4699</v>
+      </c>
+      <c r="D414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE414" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF414" t="s" s="2">
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG408"/>
+  <autoFilter ref="A1:AG414"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
